--- a/Assets/Resources/Arsenal List.xlsx
+++ b/Assets/Resources/Arsenal List.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Game Project\Unity Agent AI\Unity_AI_Agent\Assets\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD606CB1-D482-4F73-807E-3B8709D11055}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE0E5D76-D366-47B5-A113-DD2D13A4F89C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5592" yWindow="672" windowWidth="23664" windowHeight="10200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
@@ -127,9 +127,6 @@
     <t>Orichalcum</t>
   </si>
   <si>
-    <t>sword</t>
-  </si>
-  <si>
     <t>Short Sword</t>
   </si>
   <si>
@@ -302,6 +299,9 @@
   </si>
   <si>
     <t>Ventuar Shield</t>
+  </si>
+  <si>
+    <t>Sword</t>
   </si>
 </sst>
 </file>
@@ -680,10 +680,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48FB1B33-4CD8-419C-9881-D72A99D78F24}">
   <dimension ref="A1:V32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4248" activePane="topRight"/>
-      <selection activeCell="A25" sqref="A25"/>
-      <selection pane="topRight" activeCell="H9" sqref="H9"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -761,12 +759,12 @@
         <v>15</v>
       </c>
       <c r="V1" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>16</v>
@@ -775,7 +773,7 @@
         <v>17</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>35</v>
+        <v>93</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>20</v>
@@ -823,12 +821,12 @@
         <v>0</v>
       </c>
       <c r="V2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>16</v>
@@ -837,10 +835,10 @@
         <v>17</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>35</v>
+        <v>93</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F3" s="3">
         <v>10</v>
@@ -885,12 +883,12 @@
         <v>0</v>
       </c>
       <c r="V3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>16</v>
@@ -899,10 +897,10 @@
         <v>17</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>35</v>
+        <v>93</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F4" s="3">
         <v>0</v>
@@ -947,12 +945,12 @@
         <v>0</v>
       </c>
       <c r="V4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>16</v>
@@ -961,10 +959,10 @@
         <v>17</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>35</v>
+        <v>93</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F5" s="3">
         <v>0</v>
@@ -1009,12 +1007,12 @@
         <v>0</v>
       </c>
       <c r="V5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>16</v>
@@ -1023,10 +1021,10 @@
         <v>17</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>35</v>
+        <v>93</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F6" s="3">
         <v>0</v>
@@ -1071,12 +1069,12 @@
         <v>0</v>
       </c>
       <c r="V6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>16</v>
@@ -1085,10 +1083,10 @@
         <v>17</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>35</v>
+        <v>93</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F7" s="3">
         <v>10</v>
@@ -1133,12 +1131,12 @@
         <v>0</v>
       </c>
       <c r="V7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>16</v>
@@ -1147,10 +1145,10 @@
         <v>17</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>35</v>
+        <v>93</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F8" s="3">
         <v>10</v>
@@ -1195,12 +1193,12 @@
         <v>0</v>
       </c>
       <c r="V8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>16</v>
@@ -1209,10 +1207,10 @@
         <v>17</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>35</v>
+        <v>93</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F9" s="3">
         <v>0</v>
@@ -1257,12 +1255,12 @@
         <v>0</v>
       </c>
       <c r="V9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>16</v>
@@ -1271,10 +1269,10 @@
         <v>17</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>35</v>
+        <v>93</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F10" s="3">
         <v>0</v>
@@ -1319,12 +1317,12 @@
         <v>0</v>
       </c>
       <c r="V10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>16</v>
@@ -1381,7 +1379,7 @@
         <v>0</v>
       </c>
       <c r="V11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.3">
@@ -1398,7 +1396,7 @@
         <v>22</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F12" s="3">
         <v>10</v>
@@ -1443,12 +1441,12 @@
         <v>0</v>
       </c>
       <c r="V12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>16</v>
@@ -1460,7 +1458,7 @@
         <v>22</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F13" s="3">
         <v>0</v>
@@ -1505,12 +1503,12 @@
         <v>0</v>
       </c>
       <c r="V13" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>16</v>
@@ -1522,7 +1520,7 @@
         <v>22</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F14" s="3">
         <v>0</v>
@@ -1567,12 +1565,12 @@
         <v>0</v>
       </c>
       <c r="V14" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>16</v>
@@ -1584,7 +1582,7 @@
         <v>22</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F15" s="3">
         <v>0</v>
@@ -1629,7 +1627,7 @@
         <v>0</v>
       </c>
       <c r="V15" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.3">
@@ -1646,7 +1644,7 @@
         <v>22</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F16" s="3">
         <v>5</v>
@@ -1691,12 +1689,12 @@
         <v>0</v>
       </c>
       <c r="V16" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>16</v>
@@ -1753,12 +1751,12 @@
         <v>0</v>
       </c>
       <c r="V17" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>16</v>
@@ -1770,7 +1768,7 @@
         <v>29</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F18" s="3">
         <v>10</v>
@@ -1815,12 +1813,12 @@
         <v>0</v>
       </c>
       <c r="V18" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>16</v>
@@ -1832,7 +1830,7 @@
         <v>29</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F19" s="3">
         <v>0</v>
@@ -1877,12 +1875,12 @@
         <v>0</v>
       </c>
       <c r="V19" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>16</v>
@@ -1894,7 +1892,7 @@
         <v>29</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F20" s="3">
         <v>0</v>
@@ -1939,12 +1937,12 @@
         <v>0</v>
       </c>
       <c r="V20" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>16</v>
@@ -1956,7 +1954,7 @@
         <v>29</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F21" s="3">
         <v>0</v>
@@ -2001,12 +1999,12 @@
         <v>0</v>
       </c>
       <c r="V21" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>16</v>
@@ -2063,12 +2061,12 @@
         <v>0</v>
       </c>
       <c r="V22" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>16</v>
@@ -2080,7 +2078,7 @@
         <v>27</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F23" s="3">
         <v>10</v>
@@ -2125,12 +2123,12 @@
         <v>0</v>
       </c>
       <c r="V23" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>16</v>
@@ -2142,7 +2140,7 @@
         <v>27</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F24" s="3">
         <v>0</v>
@@ -2187,12 +2185,12 @@
         <v>0</v>
       </c>
       <c r="V24" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>16</v>
@@ -2204,7 +2202,7 @@
         <v>27</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F25" s="3">
         <v>0</v>
@@ -2249,12 +2247,12 @@
         <v>0</v>
       </c>
       <c r="V25" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>16</v>
@@ -2266,7 +2264,7 @@
         <v>27</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F26" s="3">
         <v>0</v>
@@ -2311,12 +2309,12 @@
         <v>0</v>
       </c>
       <c r="V26" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>16</v>
@@ -2373,12 +2371,12 @@
         <v>0</v>
       </c>
       <c r="V27" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="28" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>16</v>
@@ -2390,7 +2388,7 @@
         <v>24</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F28" s="3">
         <v>10</v>
@@ -2435,12 +2433,12 @@
         <v>0</v>
       </c>
       <c r="V28" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="29" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>16</v>
@@ -2452,7 +2450,7 @@
         <v>24</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F29" s="3">
         <v>0</v>
@@ -2497,12 +2495,12 @@
         <v>0</v>
       </c>
       <c r="V29" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="30" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>16</v>
@@ -2514,7 +2512,7 @@
         <v>24</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F30" s="3">
         <v>0</v>
@@ -2559,12 +2557,12 @@
         <v>0</v>
       </c>
       <c r="V30" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="31" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>16</v>
@@ -2576,7 +2574,7 @@
         <v>24</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F31" s="3">
         <v>0</v>
@@ -2621,12 +2619,12 @@
         <v>0</v>
       </c>
       <c r="V31" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="32" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>16</v>
@@ -2638,7 +2636,7 @@
         <v>24</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F32" s="3">
         <v>0</v>
@@ -2683,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="V32" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>
